--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34300" yWindow="3780" windowWidth="27820" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="3760" windowWidth="27820" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="4" r:id="rId1"/>
-    <sheet name="AEI" sheetId="1" r:id="rId2"/>
-    <sheet name="Hyper-editing" sheetId="5" r:id="rId3"/>
-    <sheet name="snRNAseq" sheetId="2" r:id="rId4"/>
+    <sheet name="RNAseq QC metrics" sheetId="6" r:id="rId2"/>
+    <sheet name="AEI" sheetId="1" r:id="rId3"/>
+    <sheet name="Hyper-editing" sheetId="5" r:id="rId4"/>
+    <sheet name="snRNAseq" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="111">
   <si>
     <t>A2CEditingIndex</t>
   </si>
@@ -86,12 +87,6 @@
     <t>H444</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Donor</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
@@ -125,9 +120,6 @@
     <t>Endo</t>
   </si>
   <si>
-    <t>Cell type</t>
-  </si>
-  <si>
     <t>Rep1</t>
   </si>
   <si>
@@ -152,12 +144,6 @@
     <t>snRNA-seq</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>cell_type</t>
-  </si>
-  <si>
     <t>A_down</t>
   </si>
   <si>
@@ -246,14 +232,147 @@
   </si>
   <si>
     <t>Alu editing index (AEI) metrics per sample/cell type along with ADAR expression for snRNA-seq data (n=3 donors)</t>
+  </si>
+  <si>
+    <t>PF_ALIGNED_BASES</t>
+  </si>
+  <si>
+    <t>RIBOSOMAL_BASES</t>
+  </si>
+  <si>
+    <t>CODING_BASES</t>
+  </si>
+  <si>
+    <t>UTR_BASES</t>
+  </si>
+  <si>
+    <t>INTRONIC_BASES</t>
+  </si>
+  <si>
+    <t>INTERGENIC_BASES</t>
+  </si>
+  <si>
+    <t>NUM_R1_TRANSCRIPT_STRAND_READS</t>
+  </si>
+  <si>
+    <t>NUM_R2_TRANSCRIPT_STRAND_READS</t>
+  </si>
+  <si>
+    <t>NUM_UNEXPLAINED_READS</t>
+  </si>
+  <si>
+    <t>MEDIAN_CV_COVERAGE</t>
+  </si>
+  <si>
+    <t>MEDIAN_5PRIME_BIAS</t>
+  </si>
+  <si>
+    <t>MEDIAN_3PRIME_BIAS</t>
+  </si>
+  <si>
+    <t>MEDIAN_5PRIME_TO_3PRIME_BIAS</t>
+  </si>
+  <si>
+    <t>H276_GABA</t>
+  </si>
+  <si>
+    <t>H395_GABA</t>
+  </si>
+  <si>
+    <t>H427_GLU</t>
+  </si>
+  <si>
+    <t>H427_GABA</t>
+  </si>
+  <si>
+    <t>H427_OLIG</t>
+  </si>
+  <si>
+    <t>H395_OLIG</t>
+  </si>
+  <si>
+    <t>H406_OLIG</t>
+  </si>
+  <si>
+    <t>H444_GABA</t>
+  </si>
+  <si>
+    <t>H276_OLIG</t>
+  </si>
+  <si>
+    <t>H344_OLIG</t>
+  </si>
+  <si>
+    <t>H372_GABA</t>
+  </si>
+  <si>
+    <t>H286_OLIG</t>
+  </si>
+  <si>
+    <t>H444_OLIG</t>
+  </si>
+  <si>
+    <t>H444_GLU</t>
+  </si>
+  <si>
+    <t>H344_GABA</t>
+  </si>
+  <si>
+    <t>H412_GABA</t>
+  </si>
+  <si>
+    <t>H286_GABA</t>
+  </si>
+  <si>
+    <t>H412_GLU</t>
+  </si>
+  <si>
+    <t>H412_OLIG</t>
+  </si>
+  <si>
+    <t>H406_GLU</t>
+  </si>
+  <si>
+    <t>H372_GLU</t>
+  </si>
+  <si>
+    <t>H286_GLU</t>
+  </si>
+  <si>
+    <t>H372_OLIG</t>
+  </si>
+  <si>
+    <t>H344_GLU</t>
+  </si>
+  <si>
+    <t>H406_GABA</t>
+  </si>
+  <si>
+    <t>H395_GLU</t>
+  </si>
+  <si>
+    <t>H276_GLU</t>
+  </si>
+  <si>
+    <t>Cell.type</t>
+  </si>
+  <si>
+    <t>Donor_ID</t>
+  </si>
+  <si>
+    <t>RNAseq QC metrics</t>
+  </si>
+  <si>
+    <t>Picard tools RNAseq QC metrics based on STAR mapped bam files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -305,7 +424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,21 +432,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,34 +739,42 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -667,6 +803,1376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2257772021</v>
+      </c>
+      <c r="D2">
+        <v>1572388</v>
+      </c>
+      <c r="E2">
+        <v>221242094</v>
+      </c>
+      <c r="F2">
+        <v>256135220</v>
+      </c>
+      <c r="G2">
+        <v>1604416444</v>
+      </c>
+      <c r="H2">
+        <v>174405875</v>
+      </c>
+      <c r="I2">
+        <v>1561622</v>
+      </c>
+      <c r="J2">
+        <v>49185</v>
+      </c>
+      <c r="K2">
+        <v>31298</v>
+      </c>
+      <c r="L2">
+        <v>0.69861899999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.46236500000000003</v>
+      </c>
+      <c r="N2">
+        <v>0.71097900000000003</v>
+      </c>
+      <c r="O2">
+        <v>0.59736199999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6274393384</v>
+      </c>
+      <c r="D3">
+        <v>651642</v>
+      </c>
+      <c r="E3">
+        <v>620976357</v>
+      </c>
+      <c r="F3">
+        <v>687221951</v>
+      </c>
+      <c r="G3">
+        <v>4428497863</v>
+      </c>
+      <c r="H3">
+        <v>537045571</v>
+      </c>
+      <c r="I3">
+        <v>4262179</v>
+      </c>
+      <c r="J3">
+        <v>151296</v>
+      </c>
+      <c r="K3">
+        <v>99555</v>
+      </c>
+      <c r="L3">
+        <v>0.64610299999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.51835600000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.70749399999999996</v>
+      </c>
+      <c r="O3">
+        <v>0.70243699999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>11900323407</v>
+      </c>
+      <c r="D4">
+        <v>4922813</v>
+      </c>
+      <c r="E4">
+        <v>1279561325</v>
+      </c>
+      <c r="F4">
+        <v>1417760551</v>
+      </c>
+      <c r="G4">
+        <v>8164943252</v>
+      </c>
+      <c r="H4">
+        <v>1033135466</v>
+      </c>
+      <c r="I4">
+        <v>8696051</v>
+      </c>
+      <c r="J4">
+        <v>305658</v>
+      </c>
+      <c r="K4">
+        <v>218978</v>
+      </c>
+      <c r="L4">
+        <v>0.67710099999999995</v>
+      </c>
+      <c r="M4">
+        <v>0.51528200000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.73186499999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.70173700000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>12949804544</v>
+      </c>
+      <c r="D5">
+        <v>3321350</v>
+      </c>
+      <c r="E5">
+        <v>1346115844</v>
+      </c>
+      <c r="F5">
+        <v>1377309335</v>
+      </c>
+      <c r="G5">
+        <v>9167104873</v>
+      </c>
+      <c r="H5">
+        <v>1055953142</v>
+      </c>
+      <c r="I5">
+        <v>9017465</v>
+      </c>
+      <c r="J5">
+        <v>264407</v>
+      </c>
+      <c r="K5">
+        <v>182032</v>
+      </c>
+      <c r="L5">
+        <v>0.66546400000000006</v>
+      </c>
+      <c r="M5">
+        <v>0.51810699999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.66314899999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.77318299999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>14163777591</v>
+      </c>
+      <c r="D6">
+        <v>7446330</v>
+      </c>
+      <c r="E6">
+        <v>1864057863</v>
+      </c>
+      <c r="F6">
+        <v>1788877971</v>
+      </c>
+      <c r="G6">
+        <v>9123662631</v>
+      </c>
+      <c r="H6">
+        <v>1379732796</v>
+      </c>
+      <c r="I6">
+        <v>11897196</v>
+      </c>
+      <c r="J6">
+        <v>351713</v>
+      </c>
+      <c r="K6">
+        <v>330213</v>
+      </c>
+      <c r="L6">
+        <v>0.727329</v>
+      </c>
+      <c r="M6">
+        <v>0.47659800000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.64815699999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.684948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>14262824845</v>
+      </c>
+      <c r="D7">
+        <v>11311842</v>
+      </c>
+      <c r="E7">
+        <v>1743563946</v>
+      </c>
+      <c r="F7">
+        <v>1750098323</v>
+      </c>
+      <c r="G7">
+        <v>9593963219</v>
+      </c>
+      <c r="H7">
+        <v>1163887515</v>
+      </c>
+      <c r="I7">
+        <v>11377759</v>
+      </c>
+      <c r="J7">
+        <v>351412</v>
+      </c>
+      <c r="K7">
+        <v>268398</v>
+      </c>
+      <c r="L7">
+        <v>0.66502099999999997</v>
+      </c>
+      <c r="M7">
+        <v>0.48807499999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.68461300000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.687164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>14302069608</v>
+      </c>
+      <c r="D8">
+        <v>1288281</v>
+      </c>
+      <c r="E8">
+        <v>1579659914</v>
+      </c>
+      <c r="F8">
+        <v>1695013805</v>
+      </c>
+      <c r="G8">
+        <v>9708032905</v>
+      </c>
+      <c r="H8">
+        <v>1318074703</v>
+      </c>
+      <c r="I8">
+        <v>10654043</v>
+      </c>
+      <c r="J8">
+        <v>364036</v>
+      </c>
+      <c r="K8">
+        <v>272939</v>
+      </c>
+      <c r="L8">
+        <v>0.69904299999999997</v>
+      </c>
+      <c r="M8">
+        <v>0.46665400000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.66291299999999997</v>
+      </c>
+      <c r="O8">
+        <v>0.72880599999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>16631721307</v>
+      </c>
+      <c r="D9">
+        <v>2917011</v>
+      </c>
+      <c r="E9">
+        <v>1459536640</v>
+      </c>
+      <c r="F9">
+        <v>1767506500</v>
+      </c>
+      <c r="G9">
+        <v>11998076077</v>
+      </c>
+      <c r="H9">
+        <v>1403685079</v>
+      </c>
+      <c r="I9">
+        <v>10573059</v>
+      </c>
+      <c r="J9">
+        <v>377126</v>
+      </c>
+      <c r="K9">
+        <v>246653</v>
+      </c>
+      <c r="L9">
+        <v>0.62219400000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.53589200000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.72495399999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.72793600000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>18048205695</v>
+      </c>
+      <c r="D10">
+        <v>19305752</v>
+      </c>
+      <c r="E10">
+        <v>2471003209</v>
+      </c>
+      <c r="F10">
+        <v>2350945750</v>
+      </c>
+      <c r="G10">
+        <v>11720689671</v>
+      </c>
+      <c r="H10">
+        <v>1486261313</v>
+      </c>
+      <c r="I10">
+        <v>15888099</v>
+      </c>
+      <c r="J10">
+        <v>470937</v>
+      </c>
+      <c r="K10">
+        <v>311824</v>
+      </c>
+      <c r="L10">
+        <v>0.70583600000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.46063199999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.64466299999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.67979000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>6008890255</v>
+      </c>
+      <c r="D11">
+        <v>413894</v>
+      </c>
+      <c r="E11">
+        <v>552559279</v>
+      </c>
+      <c r="F11">
+        <v>625259224</v>
+      </c>
+      <c r="G11">
+        <v>4259773460</v>
+      </c>
+      <c r="H11">
+        <v>570884398</v>
+      </c>
+      <c r="I11">
+        <v>3855872</v>
+      </c>
+      <c r="J11">
+        <v>130279</v>
+      </c>
+      <c r="K11">
+        <v>94741</v>
+      </c>
+      <c r="L11">
+        <v>0.65903299999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.49981300000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.71480999999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.70729200000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>14059024020</v>
+      </c>
+      <c r="D12">
+        <v>3232787</v>
+      </c>
+      <c r="E12">
+        <v>1403968550</v>
+      </c>
+      <c r="F12">
+        <v>1593554489</v>
+      </c>
+      <c r="G12">
+        <v>9712626687</v>
+      </c>
+      <c r="H12">
+        <v>1345641507</v>
+      </c>
+      <c r="I12">
+        <v>9709988</v>
+      </c>
+      <c r="J12">
+        <v>340918</v>
+      </c>
+      <c r="K12">
+        <v>229960</v>
+      </c>
+      <c r="L12">
+        <v>0.66054000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.51848300000000003</v>
+      </c>
+      <c r="N12">
+        <v>0.70111299999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.69834600000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>14424302730</v>
+      </c>
+      <c r="D13">
+        <v>3363537</v>
+      </c>
+      <c r="E13">
+        <v>1499708148</v>
+      </c>
+      <c r="F13">
+        <v>1622797923</v>
+      </c>
+      <c r="G13">
+        <v>9872830012</v>
+      </c>
+      <c r="H13">
+        <v>1425603110</v>
+      </c>
+      <c r="I13">
+        <v>10130595</v>
+      </c>
+      <c r="J13">
+        <v>339419</v>
+      </c>
+      <c r="K13">
+        <v>258797</v>
+      </c>
+      <c r="L13">
+        <v>0.68268899999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.48510399999999998</v>
+      </c>
+      <c r="N13">
+        <v>0.67607799999999996</v>
+      </c>
+      <c r="O13">
+        <v>0.67265299999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>15484567021</v>
+      </c>
+      <c r="D14">
+        <v>3711190</v>
+      </c>
+      <c r="E14">
+        <v>1570206438</v>
+      </c>
+      <c r="F14">
+        <v>1785458383</v>
+      </c>
+      <c r="G14">
+        <v>10624691825</v>
+      </c>
+      <c r="H14">
+        <v>1500499185</v>
+      </c>
+      <c r="I14">
+        <v>10976751</v>
+      </c>
+      <c r="J14">
+        <v>354962</v>
+      </c>
+      <c r="K14">
+        <v>248040</v>
+      </c>
+      <c r="L14">
+        <v>0.69097200000000003</v>
+      </c>
+      <c r="M14">
+        <v>0.454314</v>
+      </c>
+      <c r="N14">
+        <v>0.69373099999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.62127900000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>16063869268</v>
+      </c>
+      <c r="D15">
+        <v>1636833</v>
+      </c>
+      <c r="E15">
+        <v>1318251564</v>
+      </c>
+      <c r="F15">
+        <v>1541661505</v>
+      </c>
+      <c r="G15">
+        <v>11669362302</v>
+      </c>
+      <c r="H15">
+        <v>1532957064</v>
+      </c>
+      <c r="I15">
+        <v>9443255</v>
+      </c>
+      <c r="J15">
+        <v>286555</v>
+      </c>
+      <c r="K15">
+        <v>218683</v>
+      </c>
+      <c r="L15">
+        <v>0.65216099999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.51088800000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.70897399999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.65536300000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>16249424235</v>
+      </c>
+      <c r="D16">
+        <v>1260985</v>
+      </c>
+      <c r="E16">
+        <v>1569433330</v>
+      </c>
+      <c r="F16">
+        <v>1795417859</v>
+      </c>
+      <c r="G16">
+        <v>11211435317</v>
+      </c>
+      <c r="H16">
+        <v>1671876744</v>
+      </c>
+      <c r="I16">
+        <v>10921563</v>
+      </c>
+      <c r="J16">
+        <v>379758</v>
+      </c>
+      <c r="K16">
+        <v>296979</v>
+      </c>
+      <c r="L16">
+        <v>0.683639</v>
+      </c>
+      <c r="M16">
+        <v>0.490761</v>
+      </c>
+      <c r="N16">
+        <v>0.69079100000000004</v>
+      </c>
+      <c r="O16">
+        <v>0.67274900000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>16427441239</v>
+      </c>
+      <c r="D17">
+        <v>3581178</v>
+      </c>
+      <c r="E17">
+        <v>1682887686</v>
+      </c>
+      <c r="F17">
+        <v>1893161763</v>
+      </c>
+      <c r="G17">
+        <v>11246390769</v>
+      </c>
+      <c r="H17">
+        <v>1601419843</v>
+      </c>
+      <c r="I17">
+        <v>11627108</v>
+      </c>
+      <c r="J17">
+        <v>385417</v>
+      </c>
+      <c r="K17">
+        <v>298500</v>
+      </c>
+      <c r="L17">
+        <v>0.66869199999999995</v>
+      </c>
+      <c r="M17">
+        <v>0.51544699999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.68769100000000005</v>
+      </c>
+      <c r="O17">
+        <v>0.72969399999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>27623296442</v>
+      </c>
+      <c r="D18">
+        <v>7540840</v>
+      </c>
+      <c r="E18">
+        <v>2291117986</v>
+      </c>
+      <c r="F18">
+        <v>2908735503</v>
+      </c>
+      <c r="G18">
+        <v>19986062588</v>
+      </c>
+      <c r="H18">
+        <v>2429839525</v>
+      </c>
+      <c r="I18">
+        <v>17078429</v>
+      </c>
+      <c r="J18">
+        <v>518846</v>
+      </c>
+      <c r="K18">
+        <v>324350</v>
+      </c>
+      <c r="L18">
+        <v>0.67598999999999998</v>
+      </c>
+      <c r="M18">
+        <v>0.49505300000000002</v>
+      </c>
+      <c r="N18">
+        <v>0.69686300000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.70268600000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>29996359316</v>
+      </c>
+      <c r="D19">
+        <v>3966417</v>
+      </c>
+      <c r="E19">
+        <v>2523736924</v>
+      </c>
+      <c r="F19">
+        <v>3171899540</v>
+      </c>
+      <c r="G19">
+        <v>21366694044</v>
+      </c>
+      <c r="H19">
+        <v>2930062391</v>
+      </c>
+      <c r="I19">
+        <v>18607828</v>
+      </c>
+      <c r="J19">
+        <v>655122</v>
+      </c>
+      <c r="K19">
+        <v>492817</v>
+      </c>
+      <c r="L19">
+        <v>0.63691200000000003</v>
+      </c>
+      <c r="M19">
+        <v>0.51755200000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.72584700000000002</v>
+      </c>
+      <c r="O19">
+        <v>0.69602799999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>10877641410</v>
+      </c>
+      <c r="D20">
+        <v>1398337</v>
+      </c>
+      <c r="E20">
+        <v>1341423942</v>
+      </c>
+      <c r="F20">
+        <v>1379909264</v>
+      </c>
+      <c r="G20">
+        <v>7372346530</v>
+      </c>
+      <c r="H20">
+        <v>782563337</v>
+      </c>
+      <c r="I20">
+        <v>9018165</v>
+      </c>
+      <c r="J20">
+        <v>297212</v>
+      </c>
+      <c r="K20">
+        <v>223654</v>
+      </c>
+      <c r="L20">
+        <v>0.66500300000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.51272600000000002</v>
+      </c>
+      <c r="N20">
+        <v>0.74799300000000002</v>
+      </c>
+      <c r="O20">
+        <v>0.70684800000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>11226519597</v>
+      </c>
+      <c r="D21">
+        <v>1976959</v>
+      </c>
+      <c r="E21">
+        <v>1387456337</v>
+      </c>
+      <c r="F21">
+        <v>1348891224</v>
+      </c>
+      <c r="G21">
+        <v>7691920072</v>
+      </c>
+      <c r="H21">
+        <v>796275005</v>
+      </c>
+      <c r="I21">
+        <v>9096152</v>
+      </c>
+      <c r="J21">
+        <v>289230</v>
+      </c>
+      <c r="K21">
+        <v>187129</v>
+      </c>
+      <c r="L21">
+        <v>0.60750599999999999</v>
+      </c>
+      <c r="M21">
+        <v>0.50215399999999999</v>
+      </c>
+      <c r="N21">
+        <v>0.69134099999999998</v>
+      </c>
+      <c r="O21">
+        <v>0.69392900000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>11669428515</v>
+      </c>
+      <c r="D22">
+        <v>1495716</v>
+      </c>
+      <c r="E22">
+        <v>1508888286</v>
+      </c>
+      <c r="F22">
+        <v>1453620757</v>
+      </c>
+      <c r="G22">
+        <v>7829404963</v>
+      </c>
+      <c r="H22">
+        <v>876018793</v>
+      </c>
+      <c r="I22">
+        <v>9804699</v>
+      </c>
+      <c r="J22">
+        <v>296960</v>
+      </c>
+      <c r="K22">
+        <v>247884</v>
+      </c>
+      <c r="L22">
+        <v>0.66437800000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.53159299999999998</v>
+      </c>
+      <c r="N22">
+        <v>0.72353900000000004</v>
+      </c>
+      <c r="O22">
+        <v>0.69447499999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>12335316557</v>
+      </c>
+      <c r="D23">
+        <v>628906</v>
+      </c>
+      <c r="E23">
+        <v>1456992868</v>
+      </c>
+      <c r="F23">
+        <v>1548321506</v>
+      </c>
+      <c r="G23">
+        <v>8478498123</v>
+      </c>
+      <c r="H23">
+        <v>850875154</v>
+      </c>
+      <c r="I23">
+        <v>10015254</v>
+      </c>
+      <c r="J23">
+        <v>310669</v>
+      </c>
+      <c r="K23">
+        <v>226254</v>
+      </c>
+      <c r="L23">
+        <v>0.61548899999999995</v>
+      </c>
+      <c r="M23">
+        <v>0.51422800000000002</v>
+      </c>
+      <c r="N23">
+        <v>0.75551599999999997</v>
+      </c>
+      <c r="O23">
+        <v>0.67016699999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>12745113336</v>
+      </c>
+      <c r="D24">
+        <v>2154962</v>
+      </c>
+      <c r="E24">
+        <v>1581836316</v>
+      </c>
+      <c r="F24">
+        <v>1595462395</v>
+      </c>
+      <c r="G24">
+        <v>8665799625</v>
+      </c>
+      <c r="H24">
+        <v>899860038</v>
+      </c>
+      <c r="I24">
+        <v>10526679</v>
+      </c>
+      <c r="J24">
+        <v>305844</v>
+      </c>
+      <c r="K24">
+        <v>246615</v>
+      </c>
+      <c r="L24">
+        <v>0.65861199999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.53089500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.73828400000000005</v>
+      </c>
+      <c r="O24">
+        <v>0.73775100000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>13218627727</v>
+      </c>
+      <c r="D25">
+        <v>1220892</v>
+      </c>
+      <c r="E25">
+        <v>1456430433</v>
+      </c>
+      <c r="F25">
+        <v>1566638618</v>
+      </c>
+      <c r="G25">
+        <v>9287913633</v>
+      </c>
+      <c r="H25">
+        <v>906424151</v>
+      </c>
+      <c r="I25">
+        <v>10081319</v>
+      </c>
+      <c r="J25">
+        <v>345151</v>
+      </c>
+      <c r="K25">
+        <v>216160</v>
+      </c>
+      <c r="L25">
+        <v>0.66094399999999998</v>
+      </c>
+      <c r="M25">
+        <v>0.54871800000000004</v>
+      </c>
+      <c r="N25">
+        <v>0.73040700000000003</v>
+      </c>
+      <c r="O25">
+        <v>0.76089399999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>13841235283</v>
+      </c>
+      <c r="D26">
+        <v>8425941</v>
+      </c>
+      <c r="E26">
+        <v>2235297964</v>
+      </c>
+      <c r="F26">
+        <v>1547699671</v>
+      </c>
+      <c r="G26">
+        <v>8980614044</v>
+      </c>
+      <c r="H26">
+        <v>1069197663</v>
+      </c>
+      <c r="I26">
+        <v>12733300</v>
+      </c>
+      <c r="J26">
+        <v>393007</v>
+      </c>
+      <c r="K26">
+        <v>271265</v>
+      </c>
+      <c r="L26">
+        <v>0.79333799999999999</v>
+      </c>
+      <c r="M26">
+        <v>0.41047699999999998</v>
+      </c>
+      <c r="N26">
+        <v>0.63924199999999998</v>
+      </c>
+      <c r="O26">
+        <v>0.688689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>14476734747</v>
+      </c>
+      <c r="D27">
+        <v>4099920</v>
+      </c>
+      <c r="E27">
+        <v>1844341184</v>
+      </c>
+      <c r="F27">
+        <v>1752544961</v>
+      </c>
+      <c r="G27">
+        <v>9913649650</v>
+      </c>
+      <c r="H27">
+        <v>962099032</v>
+      </c>
+      <c r="I27">
+        <v>11900668</v>
+      </c>
+      <c r="J27">
+        <v>377939</v>
+      </c>
+      <c r="K27">
+        <v>243270</v>
+      </c>
+      <c r="L27">
+        <v>0.67283499999999996</v>
+      </c>
+      <c r="M27">
+        <v>0.51244800000000001</v>
+      </c>
+      <c r="N27">
+        <v>0.68924200000000002</v>
+      </c>
+      <c r="O27">
+        <v>0.77627199999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>16338997924</v>
+      </c>
+      <c r="D28">
+        <v>6405158</v>
+      </c>
+      <c r="E28">
+        <v>2658056946</v>
+      </c>
+      <c r="F28">
+        <v>2428882429</v>
+      </c>
+      <c r="G28">
+        <v>10149649770</v>
+      </c>
+      <c r="H28">
+        <v>1096003621</v>
+      </c>
+      <c r="I28">
+        <v>16967244</v>
+      </c>
+      <c r="J28">
+        <v>490721</v>
+      </c>
+      <c r="K28">
+        <v>299414</v>
+      </c>
+      <c r="L28">
+        <v>0.67270600000000003</v>
+      </c>
+      <c r="M28">
+        <v>0.44927499999999998</v>
+      </c>
+      <c r="N28">
+        <v>0.69441900000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.63905599999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:X28">
+    <sortCondition ref="B2:B28"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6028"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -675,10 +2181,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -699,25 +2205,25 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1988,6 +3494,98 @@
       <c r="O28">
         <v>8</v>
       </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
     </row>
     <row r="858" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q858" s="2"/>
@@ -2006,13 +3604,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:AA1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2022,85 +3618,85 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -4356,7 +5952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4366,19 +5962,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -4386,10 +5982,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.76091014099999998</v>
@@ -4406,10 +6002,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0.62526082100000002</v>
@@ -4426,10 +6022,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0.75428754899999995</v>
@@ -4446,10 +6042,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0.67747312599999998</v>
@@ -4466,10 +6062,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0.67303473300000005</v>
@@ -4486,10 +6082,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0.66264262299999999</v>
@@ -4506,10 +6102,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0.67850914200000001</v>
@@ -4526,10 +6122,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>0.62211187700000004</v>
@@ -4546,10 +6142,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0.62997468700000003</v>
@@ -4566,10 +6162,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0.43700939799999999</v>
@@ -4586,10 +6182,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>0.41949198500000001</v>
@@ -4606,10 +6202,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>0.69751690300000002</v>
@@ -4626,10 +6222,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>0.59268243399999998</v>
@@ -4646,10 +6242,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>0.61095416700000005</v>
@@ -4666,10 +6262,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>0.64512461099999996</v>
@@ -4686,10 +6282,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>0.78233899200000001</v>
@@ -4706,10 +6302,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>1.10684614</v>
@@ -4726,10 +6322,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>0.90634161400000002</v>
